--- a/Unit MQ测试报告-20250416-V1.0.xlsx
+++ b/Unit MQ测试报告-20250416-V1.0.xlsx
@@ -4,30 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17260"/>
+    <workbookView windowHeight="19240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
   <si>
     <t>M5STACK嵌入式固件测试报告</t>
   </si>
@@ -151,30 +138,138 @@
     <t>MQ工作状态</t>
   </si>
   <si>
+    <t>寄存器0x00写入状态，并读取查看是否一致。</t>
+  </si>
+  <si>
+    <t>unit_mq_test_case_1</t>
+  </si>
+  <si>
     <t>LED工作状态</t>
   </si>
   <si>
-    <t>MQ高低脉</t>
-  </si>
-  <si>
-    <t>指示灯测试</t>
-  </si>
-  <si>
-    <t>指示灯</t>
-  </si>
-  <si>
-    <t>观察指示灯的显示与工作状态是否对应</t>
+    <t>寄存器0x01写入状态，并读取查看是否一致。观察LED状态是否对应。</t>
+  </si>
+  <si>
+    <t>unit_mq_test_case_2</t>
+  </si>
+  <si>
+    <t>MQ高低脉冲</t>
+  </si>
+  <si>
+    <t>寄存器0x10写入，并读取查看是否一致。示波器抓取查看是否一致</t>
+  </si>
+  <si>
+    <t>unit_mq_test_case_3</t>
+  </si>
+  <si>
+    <t>读取MQ的8bitADC</t>
+  </si>
+  <si>
+    <t>寄存器0x20读取</t>
+  </si>
+  <si>
+    <t>unit_mq_test_case_4</t>
+  </si>
+  <si>
+    <t>读取MQ的12bitADC</t>
+  </si>
+  <si>
+    <t>寄存器0x30读取</t>
+  </si>
+  <si>
+    <t>读取Valid tags</t>
+  </si>
+  <si>
+    <t>寄存器0x40读取</t>
+  </si>
+  <si>
+    <t>unit_mq_test_case_5</t>
+  </si>
+  <si>
+    <t>读取NTC8itADC</t>
+  </si>
+  <si>
+    <t>寄存器0x50读取</t>
+  </si>
+  <si>
+    <t>unit_mq_test_case_6</t>
+  </si>
+  <si>
+    <t>读取12bitADC</t>
+  </si>
+  <si>
+    <t>寄存器0x60读取</t>
+  </si>
+  <si>
+    <t>读取温度</t>
+  </si>
+  <si>
+    <t>寄存器0x70读取</t>
+  </si>
+  <si>
+    <t>unit_mq_test_case_7</t>
+  </si>
+  <si>
+    <t>读取内部参考电压</t>
+  </si>
+  <si>
+    <t>寄存器0x80读取</t>
+  </si>
+  <si>
+    <t>unit_mq_test_case_8</t>
+  </si>
+  <si>
+    <t>读取MQ Channel电压</t>
+  </si>
+  <si>
+    <t>寄存器0x82读取</t>
+  </si>
+  <si>
+    <t>unit_mq_test_case_9</t>
+  </si>
+  <si>
+    <t>读取 NTC Channel电压</t>
+  </si>
+  <si>
+    <t>unit_mq_test_case_10</t>
+  </si>
+  <si>
+    <t>读取固件版本号</t>
+  </si>
+  <si>
+    <t>寄存器0xFE读取</t>
+  </si>
+  <si>
+    <t>unit_mq_test_case_11</t>
+  </si>
+  <si>
+    <t>I2C地址</t>
+  </si>
+  <si>
+    <t>寄存器0xFF读取</t>
+  </si>
+  <si>
+    <t>unit_mq_test_case_12</t>
+  </si>
+  <si>
+    <t>压力测试/老化测试</t>
+  </si>
+  <si>
+    <t>连续写入寄存器，并读取校验</t>
+  </si>
+  <si>
+    <t>unit_mq_test_case_13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -209,6 +304,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -217,6 +388,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -225,76 +433,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -304,50 +442,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,187 +469,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,17 +715,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,6 +743,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -668,21 +783,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -698,168 +798,163 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -895,7 +990,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -904,54 +999,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1225,10 +1320,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1435,7 +1530,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" customFormat="1" ht="17" spans="1:6">
+    <row r="13" customFormat="1" ht="51" spans="1:6">
       <c r="A13" s="6">
         <v>19</v>
       </c>
@@ -1445,77 +1540,253 @@
       <c r="C13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="E13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" customFormat="1" ht="17" spans="1:6">
+      <c r="F13" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="68" spans="1:6">
       <c r="A14" s="6">
         <v>20</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" customFormat="1" ht="17" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="68" spans="1:6">
       <c r="A15" s="6">
         <v>21</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="E15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" customFormat="1" spans="1:6">
+      <c r="F15" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="34" spans="1:6">
       <c r="A16" s="6">
         <v>22</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" customFormat="1" ht="17" spans="1:6">
+      <c r="C16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="34" spans="1:6">
       <c r="A17" s="6">
         <v>23</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="12" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" customFormat="1" ht="51" spans="1:6">
-      <c r="A18" s="6">
-        <v>24</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>42</v>
-      </c>
+    <row r="18" customFormat="1" ht="17" spans="1:6">
+      <c r="A18" s="6"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="34" spans="1:6">
+      <c r="A19" s="6"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" ht="17" spans="1:6">
+      <c r="A20" s="6"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" customFormat="1" ht="17" spans="1:6">
+      <c r="A21" s="6"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="34" spans="1:6">
+      <c r="A22" s="6"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" ht="34" spans="1:6">
+      <c r="A23" s="6"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" ht="34" spans="1:6">
+      <c r="A24" s="6"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" ht="34" spans="1:6">
+      <c r="A25" s="6"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" ht="17" spans="1:6">
+      <c r="A26" s="6"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" ht="34" spans="1:6">
+      <c r="A27" s="6"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" ht="17" spans="1:6">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Unit MQ测试报告-20250416-V1.0.xlsx
+++ b/Unit MQ测试报告-20250416-V1.0.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="19240"/>
+    <workbookView windowHeight="15060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -264,12 +277,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -304,8 +317,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,72 +395,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -397,14 +427,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,32 +440,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,19 +482,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,120 +650,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -614,42 +663,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,26 +728,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,17 +747,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -783,6 +776,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -798,163 +806,168 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -990,7 +1003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -999,54 +1012,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1322,8 +1335,8 @@
   <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>

--- a/Unit MQ测试报告-20250416-V1.0.xlsx
+++ b/Unit MQ测试报告-20250416-V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15060"/>
+    <workbookView windowHeight="18700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
   <si>
     <t>M5STACK嵌入式固件测试报告</t>
   </si>
@@ -66,7 +66,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-Stamp-C6M</t>
+Unit MQ</t>
   </si>
   <si>
     <t>硬件版本</t>
@@ -133,6 +133,9 @@
     <t>是否可以通过ADC_IN1读取ADC值</t>
   </si>
   <si>
+    <t>NTC电路有更改，新版PCB需更改。</t>
+  </si>
+  <si>
     <t>MQ</t>
   </si>
   <si>
@@ -166,7 +169,7 @@
     <t>unit_mq_test_case_2</t>
   </si>
   <si>
-    <t>MQ高低脉冲</t>
+    <t>MQ高低电平时间</t>
   </si>
   <si>
     <t>寄存器0x10写入，并读取查看是否一致。示波器抓取查看是否一致</t>
@@ -190,7 +193,8 @@
     <t>寄存器0x30读取</t>
   </si>
   <si>
-    <t>读取Valid tags</t>
+    <t>读取Valid
+Tags</t>
   </si>
   <si>
     <t>寄存器0x40读取</t>
@@ -199,7 +203,7 @@
     <t>unit_mq_test_case_5</t>
   </si>
   <si>
-    <t>读取NTC8itADC</t>
+    <t>读取NTC的8bitADC</t>
   </si>
   <si>
     <t>寄存器0x50读取</t>
@@ -208,13 +212,13 @@
     <t>unit_mq_test_case_6</t>
   </si>
   <si>
-    <t>读取12bitADC</t>
+    <t>读取NTC的12bitADC</t>
   </si>
   <si>
     <t>寄存器0x60读取</t>
   </si>
   <si>
-    <t>读取温度</t>
+    <t xml:space="preserve">读取NTC Resistance </t>
   </si>
   <si>
     <t>寄存器0x70读取</t>
@@ -244,6 +248,9 @@
     <t>读取 NTC Channel电压</t>
   </si>
   <si>
+    <t>寄存器0x84读取</t>
+  </si>
+  <si>
     <t>unit_mq_test_case_10</t>
   </si>
   <si>
@@ -256,10 +263,10 @@
     <t>unit_mq_test_case_11</t>
   </si>
   <si>
-    <t>I2C地址</t>
-  </si>
-  <si>
-    <t>寄存器0xFF读取</t>
+    <t>I2C地址读取&amp;写入</t>
+  </si>
+  <si>
+    <t>寄存器0xFF读取，写入新地址，断电查看是否保存</t>
   </si>
   <si>
     <t>unit_mq_test_case_12</t>
@@ -271,7 +278,8 @@
     <t>连续写入寄存器，并读取校验</t>
   </si>
   <si>
-    <t>unit_mq_test_case_13</t>
+    <t>unit_mq_test_case_13
+2025/4/17/23:10~2025/4/18/7:50</t>
   </si>
 </sst>
 </file>
@@ -461,7 +469,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,6 +485,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,7 +861,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -871,16 +885,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -889,89 +903,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1000,6 +1014,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1007,6 +1027,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1073,6 +1096,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>86360</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>17145</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>477520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6954520" y="2146300"/>
+          <a:ext cx="3771265" cy="4342130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1333,10 +1403,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:F28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1395,7 +1465,7 @@
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1458,7 +1528,7 @@
       <c r="D7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="6"/>
@@ -1474,7 +1544,7 @@
       <c r="D8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="6"/>
@@ -1490,7 +1560,7 @@
       <c r="D9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="6"/>
@@ -1506,10 +1576,12 @@
       <c r="D10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="6"/>
+      <c r="E10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="87" customHeight="1" spans="1:6">
       <c r="A11" s="6">
@@ -1517,12 +1589,12 @@
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="6"/>
@@ -1533,286 +1605,299 @@
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" customFormat="1" ht="51" spans="1:6">
       <c r="A13" s="6">
-        <v>19</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="68" spans="1:6">
       <c r="A14" s="6">
-        <v>20</v>
-      </c>
-      <c r="B14" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="11"/>
       <c r="C14" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="68" spans="1:6">
       <c r="A15" s="6">
-        <v>21</v>
-      </c>
-      <c r="B15" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="11"/>
       <c r="C15" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="34" spans="1:6">
       <c r="A16" s="6">
-        <v>22</v>
-      </c>
-      <c r="B16" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="11"/>
       <c r="C16" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="6" t="s">
         <v>50</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="34" spans="1:6">
       <c r="A17" s="6">
-        <v>23</v>
-      </c>
-      <c r="B17" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="11"/>
       <c r="C17" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" customFormat="1" ht="17" spans="1:6">
-      <c r="A18" s="6"/>
-      <c r="B18" s="10"/>
+        <v>53</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" customFormat="1" ht="46" customHeight="1" spans="1:6">
+      <c r="A18" s="6">
+        <v>12</v>
+      </c>
+      <c r="B18" s="11"/>
       <c r="C18" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="34" spans="1:6">
-      <c r="A19" s="6"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="6">
+        <v>13</v>
+      </c>
+      <c r="B19" s="11"/>
       <c r="C19" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" customFormat="1" ht="17" spans="1:6">
-      <c r="A20" s="6"/>
-      <c r="B20" s="10"/>
+      <c r="E19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" ht="34" spans="1:6">
+      <c r="A20" s="6">
+        <v>14</v>
+      </c>
+      <c r="B20" s="11"/>
       <c r="C20" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" customFormat="1" ht="17" spans="1:6">
-      <c r="A21" s="6"/>
-      <c r="B21" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" customFormat="1" ht="34" spans="1:6">
+      <c r="A21" s="6">
+        <v>15</v>
+      </c>
+      <c r="B21" s="11"/>
       <c r="C21" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="34" spans="1:6">
-      <c r="A22" s="6"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="6">
+        <v>16</v>
+      </c>
+      <c r="B22" s="11"/>
       <c r="C22" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="34" spans="1:6">
-      <c r="A23" s="6"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="6">
+        <v>17</v>
+      </c>
+      <c r="B23" s="11"/>
       <c r="C23" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="34" spans="1:6">
-      <c r="A24" s="6"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="6">
+        <v>18</v>
+      </c>
+      <c r="B24" s="11"/>
       <c r="C24" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="34" spans="1:6">
-      <c r="A25" s="6"/>
-      <c r="B25" s="10"/>
+      <c r="A25" s="6">
+        <v>19</v>
+      </c>
+      <c r="B25" s="11"/>
       <c r="C25" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" ht="17" spans="1:6">
-      <c r="A26" s="6"/>
-      <c r="B26" s="10"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" ht="51" spans="1:6">
+      <c r="A26" s="6">
+        <v>20</v>
+      </c>
+      <c r="B26" s="11"/>
       <c r="C26" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" ht="34" spans="1:6">
-      <c r="A27" s="6"/>
-      <c r="B27" s="10"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" ht="51" spans="1:6">
+      <c r="A27" s="6">
+        <v>21</v>
+      </c>
+      <c r="B27" s="12"/>
       <c r="C27" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" ht="17" spans="1:6">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="6"/>
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B13:B27"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F19:F20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="&#10;Stamp-C6M"/>
+    <hyperlink ref="F3" r:id="rId2" display="&#10;Unit MQ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>